--- a/excel-sheets/averaged-questions-arm-study-data.xlsx
+++ b/excel-sheets/averaged-questions-arm-study-data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,11 +439,26 @@
           <t>1_Warmth</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -453,21 +468,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>4.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -478,22 +496,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G4" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
+      <c r="H4" t="n">
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -503,22 +524,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>3.666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -527,11 +551,26 @@
           <t>2_Warmth</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.666666666666667</v>
+      </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -541,21 +580,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>6.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>5.833333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,22 +608,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -591,22 +636,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>3.666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D9" t="n">
         <v>2.333333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>3.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -615,11 +663,26 @@
           <t>3_Warmth</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.666666666666667</v>
+      </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -629,22 +692,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>3.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>6.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -654,22 +720,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.833333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>2.166666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -679,22 +748,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>2.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -703,11 +775,26 @@
           <t>4_Warmth</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.333333333333333</v>
+      </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -717,21 +804,24 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>6.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G15" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,22 +832,25 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="G16" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="C16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
+      <c r="H16" t="n">
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -767,22 +860,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F17" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="D17" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -791,11 +887,26 @@
           <t>5_Warmth</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.666666666666667</v>
+      </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="19">
@@ -805,22 +916,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>7.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -830,22 +944,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>1.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -855,22 +972,25 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -879,11 +999,26 @@
           <t>6_Warmth</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.666666666666667</v>
+      </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -893,21 +1028,24 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.833333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>6.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>3.333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,22 +1056,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>3.833333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -943,22 +1084,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.666666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C25" t="n">
-        <v>3.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>2.666666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -967,10 +1111,25 @@
           <t>7_Warmth</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.666666666666667</v>
+      </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -981,21 +1140,24 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C27" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1.333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,22 +1168,25 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G28" t="n">
         <v>5.5</v>
       </c>
-      <c r="C28" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
+      <c r="H28" t="n">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -1031,22 +1196,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>2.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D29" t="n">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>2.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1055,10 +1223,25 @@
           <t>8_Warmth</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.666666666666667</v>
+      </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="G30" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1069,21 +1252,24 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,22 +1280,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.166666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="C32" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F32" t="n">
         <v>5.5</v>
       </c>
-      <c r="D32" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -1119,22 +1308,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>2.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D33" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G33" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
+      <c r="H33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1335,25 @@
           <t>9_Warmth</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.666666666666667</v>
+      </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1157,21 +1364,24 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.833333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="C35" t="n">
-        <v>2.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,22 +1392,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D36" t="n">
         <v>5.5</v>
       </c>
-      <c r="D36" t="n">
-        <v>4.5</v>
-      </c>
       <c r="E36" t="n">
-        <v>6.166666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -1210,19 +1423,22 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>2.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/excel-sheets/averaged-questions-arm-study-data.xlsx
+++ b/excel-sheets/averaged-questions-arm-study-data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,25 +440,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.166666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="n">
-        <v>5.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.666666666666667</v>
-      </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1.666666666666667</v>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -468,25 +477,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.333333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.666666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>2.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.166666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>2.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -496,25 +514,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7.166666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>7.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>7.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>5.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>7.666666666666667</v>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="5">
@@ -524,25 +551,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>1.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2.666666666666667</v>
       </c>
       <c r="F5" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.666666666666667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -552,25 +588,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.166666666666667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" t="n">
         <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -580,25 +625,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.833333333333333</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>2.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.833333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -608,25 +662,34 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="J8" t="n">
         <v>5.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.166666666666667</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.333333333333333</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+      <c r="K8" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="9">
@@ -636,24 +699,33 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>1.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2.666666666666667</v>
       </c>
       <c r="F9" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
       <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.666666666666667</v>
       </c>
     </row>
@@ -664,25 +736,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>3.333333333333333</v>
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="11">
@@ -692,25 +773,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.333333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>2.666666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>2.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>1.166666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -720,25 +810,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="E12" t="n">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>6</v>
+      <c r="K12" t="n">
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -748,25 +847,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>2.666666666666667</v>
       </c>
       <c r="F13" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.333333333333333</v>
-      </c>
       <c r="H13" t="n">
         <v>2.333333333333333</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -776,25 +884,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.166666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -804,25 +921,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>4.166666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>1.833333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -832,25 +958,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>6.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.666666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>5.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>6.333333333333333</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="17">
@@ -863,22 +998,31 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.666666666666667</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -888,25 +1032,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="D18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.666666666666667</v>
-      </c>
       <c r="F18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -916,25 +1069,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2.333333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>1.166666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>3.333333333333333</v>
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -944,25 +1106,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>6.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
         <v>6</v>
       </c>
-      <c r="G20" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
+      <c r="J20" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="21">
@@ -972,25 +1143,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>3.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>2.666666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>3.333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -1000,25 +1180,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C22" t="n">
-        <v>4.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D22" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.666666666666667</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1028,24 +1217,33 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C23" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F23" t="n">
-        <v>3.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1056,25 +1254,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>4.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="n">
         <v>6.333333333333333</v>
       </c>
-      <c r="F24" t="n">
-        <v>2.666666666666667</v>
-      </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
         <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="25">
@@ -1084,25 +1291,34 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.666666666666667</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1112,25 +1328,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C26" t="n">
-        <v>3.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>2.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>5.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F26" t="n">
-        <v>2.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1140,24 +1365,33 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>2.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,25 +1402,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C28" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="D28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5.666666666666667</v>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -1196,25 +1439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G29" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K29" t="n">
         <v>2.666666666666667</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1224,25 +1476,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>5.666666666666667</v>
       </c>
       <c r="F30" t="n">
-        <v>2.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1252,24 +1513,33 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>1.166666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1280,25 +1550,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>4.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>5.333333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="n">
         <v>6.333333333333333</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5.5</v>
       </c>
       <c r="G32" t="n">
         <v>5.333333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>5.333333333333333</v>
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="33">
@@ -1308,25 +1587,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.333333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>1.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D33" t="n">
         <v>2.333333333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1336,25 +1624,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>3.833333333333333</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>1.166666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>5.666666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>1.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1364,24 +1661,33 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>3.333333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F35" t="n">
-        <v>2.166666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1395,22 +1701,31 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>4.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D36" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="E36" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="F36" t="n">
         <v>6.333333333333333</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4.333333333333333</v>
       </c>
       <c r="G36" t="n">
         <v>6.333333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>4.666666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -1420,25 +1735,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>1.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G37" t="n">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
   </sheetData>
